--- a/Project/BuildProto/Excel/Pet.xlsx
+++ b/Project/BuildProto/Excel/Pet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Null\Project\BuildProto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C94C63-DA6D-4C6C-8DCB-0ADEE55E27DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D97F525-70F5-4D4E-AED8-5B4BBFAA9CC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="6015" windowWidth="20130" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="6825" windowWidth="19170" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pet" sheetId="1" r:id="rId1"/>
+    <sheet name="Pet_Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>id唯一</t>
   </si>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +473,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I1:K5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -502,6 +510,9 @@
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -531,12 +542,8 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -566,10 +573,11 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B4">
         <v>50</v>
